--- a/36ԿՏՊ.xlsx
+++ b/36ԿՏՊ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grigo\OneDrive\Рабочий стол\hec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grigo\Desktop\hec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820EC191-ACB3-4933-9838-3B5078570E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBCEA6-5B57-47C6-9089-79CE833FF4D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,6 +848,279 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -861,6 +1134,44 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF3F3F3F"/>
@@ -968,19 +1279,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
+          <fgColor rgb="FFF2F2F2"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF3F3F3F"/>
@@ -1048,6 +1357,47 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1061,6 +1411,44 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF3F3F3F"/>
@@ -1131,51 +1519,12 @@
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
+          <fgColor rgb="FFF2F2F2"/>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1206,364 +1555,15 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF3F3F3F"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2164,15 +2164,15 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:G49" headerRowCount="0" totalsRowCount="1">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" dataDxfId="23" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6" totalsRowFunction="custom" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" dataDxfId="23" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6" totalsRowFunction="custom" totalsRowDxfId="1">
       <totalsRowFormula>SUM(F2:F48)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Лист3-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2187,16 +2187,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{87FDC039-4F59-4065-80F2-732517C93D48}" name="Таблица5" displayName="Таблица5" ref="A1:G7" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20" dataCellStyle="Вывод" totalsRowCellStyle="Вывод">
   <autoFilter ref="A1:G6" xr:uid="{E3CFBDC4-B5F4-4232-8FF8-647DB7939D53}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3C102FAD-6FDD-4AC0-9808-A26B12D40B5E}" name="Կոդ" dataDxfId="19" totalsRowDxfId="6" dataCellStyle="Вывод"/>
-    <tableColumn id="2" xr3:uid="{17112437-E095-4334-AF6C-96312C7839FF}" name="Ազգանուն " dataDxfId="18" totalsRowDxfId="5" dataCellStyle="Вывод"/>
-    <tableColumn id="3" xr3:uid="{4389540E-5EA7-4065-B9F9-F58B31CD081A}" name="Անուն" dataDxfId="17" totalsRowDxfId="4" dataCellStyle="Вывод"/>
-    <tableColumn id="4" xr3:uid="{FF4798D2-3321-4C1A-8280-095D30E50AF9}" name="Столбец1" dataDxfId="16" totalsRowDxfId="3" dataCellStyle="Вывод"/>
-    <tableColumn id="5" xr3:uid="{FD1299F3-8990-4C5E-8A1F-910E133C8144}" name="30.04.2021" dataDxfId="15" totalsRowDxfId="2" dataCellStyle="Вывод"/>
-    <tableColumn id="6" xr3:uid="{699FBB20-0876-4D01-BC27-924E14489FD8}" name="ԿՎ" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Вывод">
+    <tableColumn id="1" xr3:uid="{3C102FAD-6FDD-4AC0-9808-A26B12D40B5E}" name="Կոդ" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Вывод"/>
+    <tableColumn id="2" xr3:uid="{17112437-E095-4334-AF6C-96312C7839FF}" name="Ազգանուն " dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Вывод"/>
+    <tableColumn id="3" xr3:uid="{4389540E-5EA7-4065-B9F9-F58B31CD081A}" name="Անուն" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Вывод"/>
+    <tableColumn id="4" xr3:uid="{FF4798D2-3321-4C1A-8280-095D30E50AF9}" name="Столбец1" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Вывод"/>
+    <tableColumn id="5" xr3:uid="{FD1299F3-8990-4C5E-8A1F-910E133C8144}" name="30.04.2021" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Вывод"/>
+    <tableColumn id="6" xr3:uid="{699FBB20-0876-4D01-BC27-924E14489FD8}" name="ԿՎ" totalsRowFunction="custom" totalsRowDxfId="9" dataCellStyle="Вывод">
       <calculatedColumnFormula>Таблица5[[#This Row],[30.04.2021]]-Таблица5[[#This Row],[Столбец1]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(F2:F6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BC88D7EB-D64B-4182-9519-43B86D309AFB}" name="Գումար" dataDxfId="14" totalsRowDxfId="0" dataCellStyle="Вывод"/>
+    <tableColumn id="7" xr3:uid="{BC88D7EB-D64B-4182-9519-43B86D309AFB}" name="Գումար" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Вывод"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6714,7 +6714,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
